--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,82 +40,112 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>struggling</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>emergency</t>
@@ -124,40 +154,31 @@
     <t>shortage</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>worried</t>
+    <t>fight</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>outbreak</t>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -169,223 +190,274 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>free</t>
+    <t>giving</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>special</t>
+    <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>well</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>alert</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>key</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>want</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>essential</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>news</t>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>delivery</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>via</t>
+  </si>
+  <si>
+    <t>go</t>
   </si>
   <si>
     <t>food</t>
@@ -749,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,10 +829,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -818,13 +890,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -836,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -860,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -868,13 +940,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -886,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -918,13 +990,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.96</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -936,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -968,13 +1040,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8846153846153846</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -986,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.9148936170212766</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1010,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1018,13 +1090,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1036,31 +1108,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7">
-        <v>100</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1068,13 +1140,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1086,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>0.8828125</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1110,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1118,13 +1190,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>0.8802816901408451</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L9">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1160,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1168,13 +1240,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8378378378378378</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1186,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.8627450980392157</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1210,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1218,13 +1290,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8378378378378378</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1236,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.8536585365853658</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L11">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="M11">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1260,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1268,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8253424657534246</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C12">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1286,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.85</v>
+        <v>0.8671875</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1310,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1318,13 +1390,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8205128205128205</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1336,31 +1408,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="L13">
+        <v>44</v>
+      </c>
+      <c r="M13">
+        <v>44</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>7</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L13">
-        <v>48</v>
-      </c>
-      <c r="M13">
-        <v>48</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1368,13 +1440,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8157894736842105</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1386,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>0.8207547169811321</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L14">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M14">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1410,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1418,13 +1490,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7894736842105263</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1436,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1460,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1489,16 +1561,16 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.7875</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L16">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1510,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1518,13 +1590,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7419354838709677</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1536,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1560,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1568,13 +1640,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7391304347826086</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1586,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>0.7676240208877284</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L18">
-        <v>294</v>
+        <v>86</v>
       </c>
       <c r="M18">
-        <v>294</v>
+        <v>86</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1610,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1618,13 +1690,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6818181818181818</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1636,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K19">
-        <v>0.7352941176470589</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1660,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,13 +1740,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1686,19 +1758,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.80625</v>
       </c>
       <c r="L20">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="M20">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1710,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1718,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.65</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C21">
         <v>26</v>
@@ -1736,19 +1808,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>0.7230769230769231</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1760,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1768,13 +1840,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6388888888888888</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1786,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1810,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1818,13 +1890,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6129032258064516</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1836,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K23">
-        <v>0.7209302325581395</v>
+        <v>0.78</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1860,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1868,13 +1940,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6086956521739131</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1886,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>0.72</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1910,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1918,13 +1990,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6007751937984496</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C25">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1936,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>0.6923076923076923</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1960,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1968,13 +2040,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5666666666666667</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1986,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K26">
-        <v>0.6882352941176471</v>
+        <v>0.75</v>
       </c>
       <c r="L26">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2010,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2018,13 +2090,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5490196078431373</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2036,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K27">
-        <v>0.6853932584269663</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2060,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2068,13 +2140,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5100671140939598</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C28">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2086,19 +2158,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K28">
-        <v>0.6779661016949152</v>
+        <v>0.7362924281984334</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="M28">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2110,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2118,13 +2190,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4933333333333333</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2136,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2160,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2168,13 +2240,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4915254237288136</v>
+        <v>0.6</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2186,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K30">
-        <v>0.6569037656903766</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L30">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2210,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2218,13 +2290,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4545454545454545</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2236,19 +2308,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K31">
-        <v>0.6444444444444445</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2260,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2268,13 +2340,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4406779661016949</v>
+        <v>0.5771812080536913</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2286,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K32">
-        <v>0.6410256410256411</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L32">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2310,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2318,13 +2390,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4390243902439024</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2336,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2360,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2368,13 +2440,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4333333333333333</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2386,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K34">
-        <v>0.6363636363636364</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2410,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2418,13 +2490,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.417989417989418</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C35">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D35">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2436,19 +2508,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K35">
-        <v>0.6301369863013698</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L35">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2460,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2468,13 +2540,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4117647058823529</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2486,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K36">
-        <v>0.6296296296296297</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2510,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2518,13 +2590,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3928571428571428</v>
+        <v>0.525</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2536,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K37">
-        <v>0.625</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2560,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2568,13 +2640,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3214285714285715</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C38">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2586,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K38">
-        <v>0.6142857142857143</v>
+        <v>0.65625</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2610,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2618,13 +2690,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3125</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2636,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K39">
-        <v>0.5909090909090909</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2660,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2668,13 +2740,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2549019607843137</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2686,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K40">
-        <v>0.5806451612903226</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2710,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2718,13 +2790,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1849865951742627</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C41">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D41">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2736,19 +2808,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K41">
-        <v>0.5555555555555556</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2760,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2768,13 +2840,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0963855421686747</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2786,19 +2858,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K42">
-        <v>0.525</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2810,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2818,37 +2890,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00460223537146614</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>3028</v>
+        <v>36</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2860,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2868,37 +2940,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004438807863031071</v>
+        <v>0.375</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3140</v>
+        <v>50</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K44">
-        <v>0.453125</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2910,93 +2982,189 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>36</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K45">
-        <v>0.45</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L45">
+        <v>39</v>
+      </c>
+      <c r="M45">
+        <v>39</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>32</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L46">
+        <v>15</v>
+      </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C47">
+        <v>72</v>
+      </c>
+      <c r="D47">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>180</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47">
+        <v>0.55</v>
+      </c>
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>22</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>18</v>
       </c>
-      <c r="M45">
-        <v>18</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K46">
-        <v>0.4468085106382979</v>
-      </c>
-      <c r="L46">
-        <v>21</v>
-      </c>
-      <c r="M46">
-        <v>21</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K47">
-        <v>0.4305555555555556</v>
-      </c>
-      <c r="L47">
-        <v>31</v>
-      </c>
-      <c r="M47">
-        <v>31</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>41</v>
-      </c>
     </row>
     <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.206989247311828</v>
+      </c>
+      <c r="C48">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>78</v>
+      </c>
+      <c r="E48">
+        <v>0.01</v>
+      </c>
+      <c r="F48">
+        <v>0.99</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>295</v>
+      </c>
       <c r="J48" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K48">
-        <v>0.4285714285714285</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L48">
         <v>18</v>
@@ -3014,411 +3182,483 @@
         <v>0</v>
       </c>
       <c r="Q48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.008555611474584801</v>
+      </c>
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>173</v>
+      </c>
+      <c r="E49">
+        <v>0.9</v>
+      </c>
+      <c r="F49">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1970</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L49">
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.006331222925691436</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>125</v>
+      </c>
+      <c r="E50">
+        <v>0.85</v>
+      </c>
+      <c r="F50">
+        <v>0.15</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2982</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K50">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.005771080474511061</v>
+      </c>
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>0.82</v>
+      </c>
+      <c r="F51">
+        <v>0.18</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>3101</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K51">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="L51">
+        <v>41</v>
+      </c>
+      <c r="M51">
+        <v>41</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="J52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K52">
+        <v>0.5</v>
+      </c>
+      <c r="L52">
+        <v>21</v>
+      </c>
+      <c r="M52">
+        <v>21</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K53">
+        <v>0.475</v>
+      </c>
+      <c r="L53">
+        <v>19</v>
+      </c>
+      <c r="M53">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>16</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K55">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56">
+        <v>0.375</v>
+      </c>
+      <c r="L56">
+        <v>27</v>
+      </c>
+      <c r="M56">
+        <v>27</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K57">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L57">
+        <v>30</v>
+      </c>
+      <c r="M57">
+        <v>30</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K58">
+        <v>0.267175572519084</v>
+      </c>
+      <c r="L58">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>35</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K59">
+        <v>0.2637362637362637</v>
+      </c>
+      <c r="L59">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K49">
-        <v>0.4262295081967213</v>
-      </c>
-      <c r="L49">
-        <v>26</v>
-      </c>
-      <c r="M49">
-        <v>26</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
+      <c r="M59">
+        <v>24</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K60">
+        <v>0.2519685039370079</v>
+      </c>
+      <c r="L60">
+        <v>32</v>
+      </c>
+      <c r="M60">
+        <v>32</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="L61">
+        <v>14</v>
+      </c>
+      <c r="M61">
+        <v>14</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K62">
+        <v>0.2344497607655502</v>
+      </c>
+      <c r="L62">
         <v>98</v>
       </c>
-      <c r="K50">
-        <v>0.3389830508474576</v>
-      </c>
-      <c r="L50">
-        <v>20</v>
-      </c>
-      <c r="M50">
-        <v>20</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K51">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L51">
-        <v>17</v>
-      </c>
-      <c r="M51">
-        <v>17</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K52">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="L52">
-        <v>35</v>
-      </c>
-      <c r="M52">
-        <v>36</v>
-      </c>
-      <c r="N52">
-        <v>0.97</v>
-      </c>
-      <c r="O52">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K53">
-        <v>0.26</v>
-      </c>
-      <c r="L53">
-        <v>13</v>
-      </c>
-      <c r="M53">
-        <v>13</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K54">
-        <v>0.2283464566929134</v>
-      </c>
-      <c r="L54">
-        <v>29</v>
-      </c>
-      <c r="M54">
-        <v>29</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
+      <c r="M62">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K55">
-        <v>0.2018779342723005</v>
-      </c>
-      <c r="L55">
-        <v>43</v>
-      </c>
-      <c r="M55">
-        <v>45</v>
-      </c>
-      <c r="N55">
-        <v>0.96</v>
-      </c>
-      <c r="O55">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K56">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="L56">
-        <v>80</v>
-      </c>
-      <c r="M56">
-        <v>80</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K57">
-        <v>0.184652278177458</v>
-      </c>
-      <c r="L57">
-        <v>77</v>
-      </c>
-      <c r="M57">
-        <v>78</v>
-      </c>
-      <c r="N57">
-        <v>0.99</v>
-      </c>
-      <c r="O57">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K58">
-        <v>0.1804511278195489</v>
-      </c>
-      <c r="L58">
-        <v>24</v>
-      </c>
-      <c r="M58">
-        <v>24</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K59">
-        <v>0.1448598130841121</v>
-      </c>
-      <c r="L59">
-        <v>31</v>
-      </c>
-      <c r="M59">
-        <v>32</v>
-      </c>
-      <c r="N59">
-        <v>0.97</v>
-      </c>
-      <c r="O59">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K60">
-        <v>0.1443298969072165</v>
-      </c>
-      <c r="L60">
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K63">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L63">
         <v>14</v>
       </c>
-      <c r="M60">
+      <c r="M63">
         <v>14</v>
       </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K61">
-        <v>0.1401869158878505</v>
-      </c>
-      <c r="L61">
-        <v>15</v>
-      </c>
-      <c r="M61">
-        <v>17</v>
-      </c>
-      <c r="N61">
-        <v>0.88</v>
-      </c>
-      <c r="O61">
-        <v>0.12</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K62">
-        <v>0.1368421052631579</v>
-      </c>
-      <c r="L62">
-        <v>13</v>
-      </c>
-      <c r="M62">
-        <v>13</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K63">
-        <v>0.1329113924050633</v>
-      </c>
-      <c r="L63">
-        <v>21</v>
-      </c>
-      <c r="M63">
-        <v>22</v>
-      </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K64">
-        <v>0.1185682326621924</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="L64">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="M64">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3430,15 +3670,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>788</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K65">
-        <v>0.1104651162790698</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="L65">
         <v>19</v>
@@ -3456,21 +3696,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K66">
-        <v>0.1042944785276074</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3482,21 +3722,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K67">
-        <v>0.1009174311926606</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L67">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3508,47 +3748,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>294</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K68">
-        <v>0.09090909090909091</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K69">
-        <v>0.08108108108108109</v>
+        <v>0.1534883720930233</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3560,47 +3800,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K70">
-        <v>0.07666666666666666</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L70">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="M70">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="N70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>831</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K71">
-        <v>0.07407407407407407</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="L71">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M71">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3612,73 +3852,73 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>450</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K72">
-        <v>0.07098765432098765</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="L72">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>602</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K73">
-        <v>0.06390977443609022</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M73">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N73">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K74">
-        <v>0.06351039260969978</v>
+        <v>0.1356502242152466</v>
       </c>
       <c r="L74">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="M74">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="N74">
         <v>0.98</v>
@@ -3690,137 +3930,605 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>811</v>
+        <v>771</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K75">
-        <v>0.05555555555555555</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L75">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>2023</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="K76">
-        <v>0.02101519560297446</v>
+        <v>0.125</v>
       </c>
       <c r="L76">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="N76">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="O76">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>3028</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K77">
-        <v>0.01659751037344398</v>
+        <v>0.1231884057971015</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M77">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>948</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K78">
-        <v>0.01555747623163353</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="L78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>1139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="K79">
-        <v>0.01474741135864449</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L79">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M79">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="N79">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>3140</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K80">
+        <v>0.1042944785276074</v>
+      </c>
+      <c r="L80">
+        <v>34</v>
+      </c>
+      <c r="M80">
+        <v>35</v>
+      </c>
+      <c r="N80">
+        <v>0.97</v>
+      </c>
+      <c r="O80">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K81">
+        <v>0.1021897810218978</v>
+      </c>
+      <c r="L81">
+        <v>14</v>
+      </c>
+      <c r="M81">
+        <v>14</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K82">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L82">
+        <v>15</v>
+      </c>
+      <c r="M82">
+        <v>15</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K83">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="L83">
+        <v>80</v>
+      </c>
+      <c r="M83">
+        <v>81</v>
+      </c>
+      <c r="N83">
+        <v>0.99</v>
+      </c>
+      <c r="O83">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K84">
+        <v>0.08500772797527048</v>
+      </c>
+      <c r="L84">
+        <v>55</v>
+      </c>
+      <c r="M84">
+        <v>58</v>
+      </c>
+      <c r="N84">
+        <v>0.95</v>
+      </c>
+      <c r="O84">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K85">
+        <v>0.08247422680412371</v>
+      </c>
+      <c r="L85">
+        <v>40</v>
+      </c>
+      <c r="M85">
+        <v>41</v>
+      </c>
+      <c r="N85">
+        <v>0.98</v>
+      </c>
+      <c r="O85">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K86">
+        <v>0.08176100628930817</v>
+      </c>
+      <c r="L86">
+        <v>13</v>
+      </c>
+      <c r="M86">
+        <v>13</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K87">
+        <v>0.08092485549132948</v>
+      </c>
+      <c r="L87">
+        <v>70</v>
+      </c>
+      <c r="M87">
+        <v>72</v>
+      </c>
+      <c r="N87">
+        <v>0.97</v>
+      </c>
+      <c r="O87">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K88">
+        <v>0.07467532467532467</v>
+      </c>
+      <c r="L88">
+        <v>23</v>
+      </c>
+      <c r="M88">
+        <v>23</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K89">
+        <v>0.07423580786026202</v>
+      </c>
+      <c r="L89">
+        <v>17</v>
+      </c>
+      <c r="M89">
+        <v>18</v>
+      </c>
+      <c r="N89">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O89">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K90">
+        <v>0.07337723424270931</v>
+      </c>
+      <c r="L90">
+        <v>156</v>
+      </c>
+      <c r="M90">
+        <v>173</v>
+      </c>
+      <c r="N90">
+        <v>0.9</v>
+      </c>
+      <c r="O90">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K91">
+        <v>0.05617977528089887</v>
+      </c>
+      <c r="L91">
+        <v>15</v>
+      </c>
+      <c r="M91">
+        <v>15</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K92">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L92">
+        <v>13</v>
+      </c>
+      <c r="M92">
+        <v>16</v>
+      </c>
+      <c r="N92">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O92">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K93">
+        <v>0.05027932960893855</v>
+      </c>
+      <c r="L93">
+        <v>18</v>
+      </c>
+      <c r="M93">
+        <v>20</v>
+      </c>
+      <c r="N93">
+        <v>0.9</v>
+      </c>
+      <c r="O93">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K94">
+        <v>0.03432642487046632</v>
+      </c>
+      <c r="L94">
+        <v>106</v>
+      </c>
+      <c r="M94">
+        <v>125</v>
+      </c>
+      <c r="N94">
+        <v>0.85</v>
+      </c>
+      <c r="O94">
+        <v>0.15</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K95">
+        <v>0.03014553014553015</v>
+      </c>
+      <c r="L95">
+        <v>29</v>
+      </c>
+      <c r="M95">
+        <v>35</v>
+      </c>
+      <c r="N95">
+        <v>0.83</v>
+      </c>
+      <c r="O95">
+        <v>0.17</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K96">
+        <v>0.02576185988061577</v>
+      </c>
+      <c r="L96">
+        <v>82</v>
+      </c>
+      <c r="M96">
+        <v>100</v>
+      </c>
+      <c r="N96">
+        <v>0.82</v>
+      </c>
+      <c r="O96">
+        <v>0.18</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K97">
+        <v>0.01728608470181504</v>
+      </c>
+      <c r="L97">
+        <v>20</v>
+      </c>
+      <c r="M97">
+        <v>24</v>
+      </c>
+      <c r="N97">
+        <v>0.83</v>
+      </c>
+      <c r="O97">
+        <v>0.17</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
